--- a/Entities/DB/SeedData/product/products.xlsx
+++ b/Entities/DB/SeedData/product/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eee0e5a6c82ab4a5/Documents/product/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALBAB\Entities\DB\SeedData\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{4AF88848-CC7E-457A-883D-F3A1D99CDC78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F7CC584-2AEF-46D6-891B-6AEFB6B7C3F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF73ED9-5268-408E-867F-743C5C10D1DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{51BC08C8-9C6B-4D69-B342-C022603B8642}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51BC08C8-9C6B-4D69-B342-C022603B8642}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="115">
-  <si>
-    <t>SERAI</t>
-  </si>
-  <si>
-    <t>CASIT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>CASIT MC300</t>
   </si>
@@ -333,42 +327,6 @@
     <t>SV100 KIT</t>
   </si>
   <si>
-    <t>producttypeId</t>
-  </si>
-  <si>
-    <t>productbrandId</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>DOCO</t>
-  </si>
-  <si>
-    <t>APRIMATIC</t>
-  </si>
-  <si>
-    <t>Aprimatic</t>
-  </si>
-  <si>
-    <t>Italpannelli</t>
-  </si>
-  <si>
-    <t>Jayda</t>
-  </si>
-  <si>
-    <t>KTH</t>
-  </si>
-  <si>
-    <t>Marantic</t>
-  </si>
-  <si>
-    <t>Anxia</t>
-  </si>
-  <si>
-    <t>POWERTECH</t>
-  </si>
-  <si>
     <t>OverHead Garage Panel Soft 0.5m 9006 color gray</t>
   </si>
   <si>
@@ -379,6 +337,12 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>productbrandid</t>
+  </si>
+  <si>
+    <t>producttypeid</t>
   </si>
 </sst>
 </file>
@@ -735,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7749754E-BB67-4E68-A8F9-B8B909E01D32}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,30 +712,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -782,13 +746,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -799,13 +763,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -816,13 +780,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -833,49 +797,49 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
         <f>IF(C6="DOCO",5,0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
         <f>IF(C7="DOCO",5,0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -886,13 +850,13 @@
     </row>
     <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -903,13 +867,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -920,13 +884,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -937,13 +901,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -954,13 +918,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -971,13 +935,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -988,13 +952,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1005,13 +969,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1022,13 +986,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1039,13 +1003,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1056,13 +1020,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1073,13 +1037,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1090,13 +1054,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1107,13 +1071,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1124,13 +1088,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1141,13 +1105,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -1158,13 +1122,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1175,13 +1139,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1192,13 +1156,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1209,13 +1173,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1226,13 +1190,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1243,13 +1207,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1260,12 +1224,12 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31">
@@ -1277,12 +1241,12 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32">
@@ -1294,12 +1258,12 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33">
@@ -1311,13 +1275,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -1328,13 +1292,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -1345,12 +1309,12 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36">
@@ -1362,13 +1326,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -1379,13 +1343,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -1396,12 +1360,12 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39">
@@ -1413,12 +1377,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40">
@@ -1430,12 +1394,12 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41">
@@ -1447,12 +1411,12 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42">
@@ -1464,13 +1428,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1481,12 +1445,12 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44">
@@ -1498,12 +1462,12 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45">
@@ -1515,12 +1479,12 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46">
@@ -1532,13 +1496,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -1549,12 +1513,12 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48">
@@ -1566,12 +1530,12 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49">
@@ -1583,12 +1547,12 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
         <v>0</v>
       </c>
       <c r="D50">
@@ -1600,12 +1564,12 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51">
@@ -1617,13 +1581,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
       </c>
       <c r="D52">
         <v>9</v>
@@ -1634,13 +1598,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
       </c>
       <c r="D53">
         <v>9</v>
@@ -1651,13 +1615,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>107</v>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
       </c>
       <c r="D54">
         <v>9</v>
@@ -1668,13 +1632,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
       </c>
       <c r="D55">
         <v>9</v>
@@ -1685,13 +1649,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -1702,13 +1666,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
       </c>
       <c r="D57">
         <v>9</v>
@@ -1719,13 +1683,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -1736,13 +1700,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -1753,12 +1717,12 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60">
@@ -1770,12 +1734,12 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61">
@@ -1787,12 +1751,12 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62">
@@ -1804,12 +1768,12 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63">
@@ -1821,12 +1785,12 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64">
@@ -1838,12 +1802,12 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65">
@@ -1855,12 +1819,12 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1">
         <v>0</v>
       </c>
       <c r="D66">
@@ -1872,12 +1836,12 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67">
@@ -1889,13 +1853,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -1906,13 +1870,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -1923,12 +1887,12 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70">
@@ -1940,12 +1904,12 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71">
@@ -1957,12 +1921,12 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72">
@@ -1974,12 +1938,12 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73">
@@ -1991,12 +1955,12 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74">
@@ -2008,12 +1972,12 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75">
@@ -2025,12 +1989,12 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76">
@@ -2042,13 +2006,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -2059,13 +2023,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -2076,13 +2040,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -2093,13 +2057,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -2110,13 +2074,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2127,12 +2091,12 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82">
@@ -2144,12 +2108,12 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83">
@@ -2161,13 +2125,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -2178,13 +2142,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -2195,13 +2159,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -2212,13 +2176,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -2229,13 +2193,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
       </c>
       <c r="D88">
         <v>10</v>
@@ -2246,13 +2210,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -2263,13 +2227,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -2280,13 +2244,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -2297,13 +2261,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -2314,13 +2278,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -2331,13 +2295,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
       </c>
       <c r="D94">
         <v>10</v>
@@ -2348,13 +2312,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -2365,12 +2329,12 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="1">
         <v>0</v>
       </c>
       <c r="D96">
@@ -2382,13 +2346,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -2399,13 +2363,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -2416,12 +2380,12 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="1">
         <v>0</v>
       </c>
       <c r="D99">

--- a/Entities/DB/SeedData/product/products.xlsx
+++ b/Entities/DB/SeedData/product/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALBAB\Entities\DB\SeedData\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF73ED9-5268-408E-867F-743C5C10D1DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB52763-FED0-4522-B0B8-C7748112BF88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51BC08C8-9C6B-4D69-B342-C022603B8642}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51BC08C8-9C6B-4D69-B342-C022603B8642}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>CASIT MC300</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Apr Glass Door Sensor Double Tech</t>
   </si>
   <si>
-    <t>APR KIT Swing Aluminum AP423</t>
-  </si>
-  <si>
     <t>Apr Photocell Reflecter</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>M/59</t>
   </si>
   <si>
-    <t>M/66</t>
-  </si>
-  <si>
     <t>M/83/1</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>MT/14</t>
   </si>
   <si>
-    <t>OG76A</t>
-  </si>
-  <si>
     <t>Overhead chain</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>productbrandid</t>
   </si>
   <si>
     <t>producttypeid</t>
@@ -697,37 +685,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7749754E-BB67-4E68-A8F9-B8B909E01D32}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="46.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,11 +725,8 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -755,13 +737,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,13 +751,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,13 +765,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,14 +779,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <f>IF(C6="DOCO",5,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,14 +793,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <f>IF(C7="DOCO",5,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,13 +807,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,13 +821,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,13 +835,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,13 +849,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -910,13 +863,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,13 +877,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -946,11 +893,8 @@
       <c r="D14">
         <v>7</v>
       </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -963,11 +907,8 @@
       <c r="D15">
         <v>7</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -978,13 +919,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -995,13 +933,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1012,13 +947,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1029,13 +961,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1046,13 +975,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1063,13 +989,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1080,13 +1003,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1097,13 +1017,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1114,13 +1031,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1131,13 +1045,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1148,13 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1165,13 +1073,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1182,13 +1087,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1199,13 +1101,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1216,13 +1115,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1233,13 +1129,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1250,13 +1143,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1267,13 +1157,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1284,13 +1171,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1301,13 +1185,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1318,13 +1199,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1335,13 +1213,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1352,13 +1227,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1369,13 +1241,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1386,13 +1255,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1403,13 +1269,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1420,13 +1283,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1437,13 +1297,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1454,13 +1311,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1471,13 +1325,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1488,13 +1339,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1507,11 +1355,8 @@
       <c r="D47">
         <v>5</v>
       </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1522,13 +1367,10 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1539,13 +1381,10 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1556,13 +1395,10 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1573,13 +1409,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1590,13 +1423,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1607,13 +1437,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1624,13 +1451,10 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>9</v>
-      </c>
-      <c r="E54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1641,13 +1465,10 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1658,13 +1479,10 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>9</v>
-      </c>
-      <c r="E56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -1675,13 +1493,10 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>9</v>
-      </c>
-      <c r="E57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -1692,13 +1507,10 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -1709,13 +1521,10 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -1726,13 +1535,10 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -1743,13 +1549,10 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -1760,13 +1563,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -1777,13 +1577,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -1794,13 +1591,10 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -1811,13 +1605,10 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -1828,13 +1619,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -1845,13 +1633,10 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -1862,13 +1647,10 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -1879,13 +1661,10 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -1896,13 +1675,10 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -1913,13 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -1930,13 +1703,10 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -1947,13 +1717,10 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -1964,81 +1731,66 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -2049,13 +1801,10 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -2066,13 +1815,10 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -2083,13 +1829,10 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -2100,13 +1843,10 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -2117,13 +1857,10 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -2134,13 +1871,10 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -2151,13 +1885,10 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -2168,13 +1899,10 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -2185,13 +1913,10 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -2202,13 +1927,10 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>10</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
@@ -2219,13 +1941,10 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -2236,13 +1955,10 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
@@ -2253,13 +1969,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>8</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
@@ -2270,13 +1983,10 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>8</v>
-      </c>
-      <c r="E92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
@@ -2287,13 +1997,10 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>8</v>
-      </c>
-      <c r="E93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
@@ -2304,13 +2011,10 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>10</v>
-      </c>
-      <c r="E94">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -2321,13 +2025,10 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
@@ -2338,61 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-      <c r="E97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
